--- a/final_project/eventos_totais.xlsx
+++ b/final_project/eventos_totais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\UC\2º semestre\Visualização\projeto\3. projeto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146BC47-C56F-4438-ADE4-9E72BBD43CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DF844-6F56-43B5-89CB-9F9D498E5D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1038</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1039</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="492">
   <si>
     <t>Malta</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>event</t>
+  </si>
+  <si>
+    <t>Economic miracle: With the end of the armed conflict, international support, foreign direct investments and the post-war reconstruction, the country has a very strong GDP growth</t>
   </si>
 </sst>
 </file>
@@ -1975,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1038"/>
+  <dimension ref="A1:E1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7030,13 +7033,13 @@
         <v>1996</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="D297" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E297" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7047,13 +7050,13 @@
         <v>1996</v>
       </c>
       <c r="C298" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D298" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E298" t="s">
-        <v>157</v>
+        <v>484</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7061,16 +7064,16 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D299" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E299" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7081,13 +7084,13 @@
         <v>1997</v>
       </c>
       <c r="C300" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E300" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7098,13 +7101,13 @@
         <v>1997</v>
       </c>
       <c r="C301" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D301" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E301" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7112,16 +7115,16 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D302" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E302" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7132,13 +7135,13 @@
         <v>1998</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D303" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E303" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7149,13 +7152,13 @@
         <v>1998</v>
       </c>
       <c r="C304" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D304" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="E304" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7166,13 +7169,13 @@
         <v>1998</v>
       </c>
       <c r="C305" t="s">
-        <v>405</v>
+        <v>15</v>
       </c>
       <c r="D305" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="E305" t="s">
-        <v>466</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7180,16 +7183,16 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C306" t="s">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="D306" t="s">
         <v>224</v>
       </c>
       <c r="E306" t="s">
-        <v>162</v>
+        <v>466</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7200,13 +7203,13 @@
         <v>1999</v>
       </c>
       <c r="C307" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="E307" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7217,13 +7220,13 @@
         <v>1999</v>
       </c>
       <c r="C308" t="s">
-        <v>365</v>
+        <v>7</v>
       </c>
       <c r="D308" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="E308" t="s">
-        <v>483</v>
+        <v>163</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7234,13 +7237,13 @@
         <v>1999</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="D309" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E309" t="s">
-        <v>164</v>
+        <v>483</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7251,13 +7254,13 @@
         <v>1999</v>
       </c>
       <c r="C310" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D310" t="s">
         <v>224</v>
       </c>
       <c r="E310" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7268,13 +7271,13 @@
         <v>1999</v>
       </c>
       <c r="C311" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D311" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="E311" t="s">
-        <v>329</v>
+        <v>165</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7285,13 +7288,13 @@
         <v>1999</v>
       </c>
       <c r="C312" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
         <v>246</v>
       </c>
       <c r="E312" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7302,13 +7305,13 @@
         <v>1999</v>
       </c>
       <c r="C313" t="s">
-        <v>405</v>
+        <v>15</v>
       </c>
       <c r="D313" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="E313" t="s">
-        <v>166</v>
+        <v>330</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7319,13 +7322,13 @@
         <v>1999</v>
       </c>
       <c r="C314" t="s">
-        <v>13</v>
+        <v>405</v>
       </c>
       <c r="D314" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="E314" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7336,13 +7339,13 @@
         <v>1999</v>
       </c>
       <c r="C315" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="D315" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E315" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7350,16 +7353,16 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C316" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="D316" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E316" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7370,13 +7373,13 @@
         <v>2000</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D317" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E317" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7387,13 +7390,13 @@
         <v>2000</v>
       </c>
       <c r="C318" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E318" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7401,16 +7404,16 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C319" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="D319" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E319" t="s">
-        <v>332</v>
+        <v>170</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7421,13 +7424,13 @@
         <v>2001</v>
       </c>
       <c r="C320" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D320" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E320" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7435,16 +7438,16 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C321" t="s">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="D321" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E321" t="s">
-        <v>333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7455,13 +7458,13 @@
         <v>2002</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D322" t="s">
         <v>224</v>
       </c>
       <c r="E322" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7472,13 +7475,13 @@
         <v>2002</v>
       </c>
       <c r="C323" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D323" t="s">
         <v>224</v>
       </c>
       <c r="E323" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7489,13 +7492,13 @@
         <v>2002</v>
       </c>
       <c r="C324" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D324" t="s">
         <v>224</v>
       </c>
       <c r="E324" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7506,13 +7509,13 @@
         <v>2002</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D325" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E325" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7523,13 +7526,13 @@
         <v>2002</v>
       </c>
       <c r="C326" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E326" t="s">
-        <v>337</v>
+        <v>171</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7540,13 +7543,13 @@
         <v>2002</v>
       </c>
       <c r="C327" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="D327" t="s">
         <v>224</v>
       </c>
       <c r="E327" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7557,13 +7560,13 @@
         <v>2002</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>232</v>
       </c>
       <c r="D328" t="s">
         <v>224</v>
       </c>
       <c r="E328" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7574,13 +7577,13 @@
         <v>2002</v>
       </c>
       <c r="C329" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D329" t="s">
         <v>224</v>
       </c>
       <c r="E329" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7591,13 +7594,13 @@
         <v>2002</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D330" t="s">
         <v>224</v>
       </c>
       <c r="E330" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7608,13 +7611,13 @@
         <v>2002</v>
       </c>
       <c r="C331" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D331" t="s">
         <v>224</v>
       </c>
       <c r="E331" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7625,13 +7628,13 @@
         <v>2002</v>
       </c>
       <c r="C332" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="D332" t="s">
         <v>224</v>
       </c>
       <c r="E332" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7642,13 +7645,13 @@
         <v>2002</v>
       </c>
       <c r="C333" t="s">
-        <v>419</v>
+        <v>242</v>
       </c>
       <c r="D333" t="s">
         <v>224</v>
       </c>
       <c r="E333" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7659,13 +7662,13 @@
         <v>2002</v>
       </c>
       <c r="C334" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="D334" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E334" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7676,13 +7679,13 @@
         <v>2002</v>
       </c>
       <c r="C335" t="s">
-        <v>12</v>
+        <v>405</v>
       </c>
       <c r="D335" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E335" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7693,13 +7696,13 @@
         <v>2002</v>
       </c>
       <c r="C336" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D336" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E336" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7707,16 +7710,16 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C337" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D337" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="E337" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7727,13 +7730,13 @@
         <v>2003</v>
       </c>
       <c r="C338" t="s">
-        <v>405</v>
+        <v>9</v>
       </c>
       <c r="D338" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="E338" t="s">
-        <v>346</v>
+        <v>174</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7744,13 +7747,13 @@
         <v>2003</v>
       </c>
       <c r="C339" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="D339" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="E339" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7761,13 +7764,13 @@
         <v>2003</v>
       </c>
       <c r="C340" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D340" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E340" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7778,13 +7781,13 @@
         <v>2003</v>
       </c>
       <c r="C341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D341" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E341" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7795,13 +7798,13 @@
         <v>2003</v>
       </c>
       <c r="C342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D342" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E342" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7809,16 +7812,16 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C343" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D343" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E343" t="s">
-        <v>347</v>
+        <v>178</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7829,13 +7832,13 @@
         <v>2004</v>
       </c>
       <c r="C344" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="D344" t="s">
         <v>246</v>
       </c>
       <c r="E344" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7846,13 +7849,13 @@
         <v>2004</v>
       </c>
       <c r="C345" t="s">
-        <v>4</v>
+        <v>406</v>
       </c>
       <c r="D345" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="E345" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7863,13 +7866,13 @@
         <v>2004</v>
       </c>
       <c r="C346" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E346" t="s">
-        <v>349</v>
+        <v>179</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7880,13 +7883,13 @@
         <v>2004</v>
       </c>
       <c r="C347" t="s">
-        <v>459</v>
+        <v>16</v>
       </c>
       <c r="D347" t="s">
         <v>246</v>
       </c>
       <c r="E347" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7897,13 +7900,13 @@
         <v>2004</v>
       </c>
       <c r="C348" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="D348" t="s">
         <v>246</v>
       </c>
       <c r="E348" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7914,13 +7917,13 @@
         <v>2004</v>
       </c>
       <c r="C349" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D349" t="s">
         <v>246</v>
       </c>
       <c r="E349" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7931,13 +7934,13 @@
         <v>2004</v>
       </c>
       <c r="C350" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="D350" t="s">
         <v>246</v>
       </c>
       <c r="E350" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7948,13 +7951,13 @@
         <v>2004</v>
       </c>
       <c r="C351" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D351" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E351" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7965,13 +7968,13 @@
         <v>2004</v>
       </c>
       <c r="C352" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D352" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E352" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7982,13 +7985,13 @@
         <v>2004</v>
       </c>
       <c r="C353" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="D353" t="s">
-        <v>397</v>
+        <v>229</v>
       </c>
       <c r="E353" t="s">
-        <v>354</v>
+        <v>181</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7999,7 +8002,7 @@
         <v>2004</v>
       </c>
       <c r="C354" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
       <c r="D354" t="s">
         <v>397</v>
@@ -8016,13 +8019,13 @@
         <v>2004</v>
       </c>
       <c r="C355" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="D355" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="E355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8033,13 +8036,13 @@
         <v>2004</v>
       </c>
       <c r="C356" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D356" t="s">
         <v>246</v>
       </c>
       <c r="E356" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8050,13 +8053,13 @@
         <v>2004</v>
       </c>
       <c r="C357" t="s">
-        <v>459</v>
+        <v>10</v>
       </c>
       <c r="D357" t="s">
         <v>246</v>
       </c>
       <c r="E357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8067,13 +8070,13 @@
         <v>2004</v>
       </c>
       <c r="C358" t="s">
-        <v>16</v>
+        <v>459</v>
       </c>
       <c r="D358" t="s">
         <v>246</v>
       </c>
       <c r="E358" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8084,13 +8087,13 @@
         <v>2004</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D359" t="s">
         <v>246</v>
       </c>
       <c r="E359" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8101,13 +8104,13 @@
         <v>2004</v>
       </c>
       <c r="C360" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D360" t="s">
         <v>246</v>
       </c>
       <c r="E360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8118,13 +8121,13 @@
         <v>2004</v>
       </c>
       <c r="C361" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="D361" t="s">
         <v>246</v>
       </c>
       <c r="E361" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8135,13 +8138,13 @@
         <v>2004</v>
       </c>
       <c r="C362" t="s">
-        <v>18</v>
+        <v>406</v>
       </c>
       <c r="D362" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="E362" t="s">
-        <v>182</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8152,13 +8155,13 @@
         <v>2004</v>
       </c>
       <c r="C363" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D363" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="E363" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8169,13 +8172,13 @@
         <v>2004</v>
       </c>
       <c r="C364" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="D364" t="s">
         <v>229</v>
       </c>
       <c r="E364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8186,13 +8189,13 @@
         <v>2004</v>
       </c>
       <c r="C365" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="D365" t="s">
         <v>229</v>
       </c>
       <c r="E365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8203,13 +8206,13 @@
         <v>2004</v>
       </c>
       <c r="C366" t="s">
-        <v>365</v>
+        <v>16</v>
       </c>
       <c r="D366" t="s">
         <v>229</v>
       </c>
       <c r="E366" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8220,13 +8223,13 @@
         <v>2004</v>
       </c>
       <c r="C367" t="s">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="D367" t="s">
         <v>229</v>
       </c>
       <c r="E367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8237,13 +8240,13 @@
         <v>2004</v>
       </c>
       <c r="C368" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D368" t="s">
         <v>229</v>
       </c>
       <c r="E368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8254,13 +8257,13 @@
         <v>2004</v>
       </c>
       <c r="C369" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D369" t="s">
         <v>229</v>
       </c>
       <c r="E369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8271,13 +8274,13 @@
         <v>2004</v>
       </c>
       <c r="C370" t="s">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="D370" t="s">
         <v>229</v>
       </c>
       <c r="E370" t="s">
-        <v>457</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8288,13 +8291,13 @@
         <v>2004</v>
       </c>
       <c r="C371" t="s">
-        <v>232</v>
+        <v>456</v>
       </c>
       <c r="D371" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E371" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8308,10 +8311,10 @@
         <v>232</v>
       </c>
       <c r="D372" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8325,10 +8328,10 @@
         <v>232</v>
       </c>
       <c r="D373" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8336,16 +8339,16 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C374" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
       <c r="D374" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E374" t="s">
-        <v>183</v>
+        <v>372</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8353,16 +8356,16 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D375" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E375" t="s">
-        <v>373</v>
+        <v>183</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8370,16 +8373,16 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C376" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D376" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E376" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8390,13 +8393,13 @@
         <v>2007</v>
       </c>
       <c r="C377" t="s">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D377" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E377" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8407,13 +8410,13 @@
         <v>2007</v>
       </c>
       <c r="C378" t="s">
-        <v>15</v>
+        <v>459</v>
       </c>
       <c r="D378" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E378" t="s">
-        <v>184</v>
+        <v>398</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8424,13 +8427,13 @@
         <v>2007</v>
       </c>
       <c r="C379" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D379" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E379" t="s">
-        <v>375</v>
+        <v>184</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8441,13 +8444,13 @@
         <v>2007</v>
       </c>
       <c r="C380" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="D380" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E380" t="s">
-        <v>460</v>
+        <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8458,13 +8461,13 @@
         <v>2007</v>
       </c>
       <c r="C381" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="D381" t="s">
         <v>229</v>
       </c>
       <c r="E381" t="s">
-        <v>376</v>
+        <v>460</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8472,16 +8475,16 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C382" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D382" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E382" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8492,13 +8495,13 @@
         <v>2008</v>
       </c>
       <c r="C383" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D383" t="s">
         <v>224</v>
       </c>
       <c r="E383" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8509,13 +8512,13 @@
         <v>2008</v>
       </c>
       <c r="C384" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D384" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E384" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8526,13 +8529,13 @@
         <v>2008</v>
       </c>
       <c r="C385" t="s">
-        <v>405</v>
+        <v>8</v>
       </c>
       <c r="D385" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E385" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8543,13 +8546,13 @@
         <v>2008</v>
       </c>
       <c r="C386" t="s">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="D386" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E386" t="s">
-        <v>380</v>
+        <v>185</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8560,13 +8563,13 @@
         <v>2008</v>
       </c>
       <c r="C387" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D387" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E387" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8574,16 +8577,16 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C388" t="s">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="D388" t="s">
         <v>220</v>
       </c>
       <c r="E388" t="s">
-        <v>186</v>
+        <v>381</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8594,13 +8597,13 @@
         <v>2009</v>
       </c>
       <c r="C389" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D389" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E389" t="s">
-        <v>400</v>
+        <v>186</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8611,13 +8614,13 @@
         <v>2009</v>
       </c>
       <c r="C390" t="s">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D390" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E390" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8628,13 +8631,13 @@
         <v>2009</v>
       </c>
       <c r="C391" t="s">
-        <v>13</v>
+        <v>406</v>
       </c>
       <c r="D391" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="E391" t="s">
-        <v>187</v>
+        <v>382</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8645,13 +8648,13 @@
         <v>2009</v>
       </c>
       <c r="C392" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D392" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="E392" t="s">
-        <v>383</v>
+        <v>187</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8662,7 +8665,7 @@
         <v>2009</v>
       </c>
       <c r="C393" t="s">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="D393" t="s">
         <v>224</v>
@@ -8679,7 +8682,7 @@
         <v>2009</v>
       </c>
       <c r="C394" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="D394" t="s">
         <v>224</v>
@@ -8696,7 +8699,7 @@
         <v>2009</v>
       </c>
       <c r="C395" t="s">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="D395" t="s">
         <v>224</v>
@@ -8713,7 +8716,7 @@
         <v>2009</v>
       </c>
       <c r="C396" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="D396" t="s">
         <v>224</v>
@@ -8730,7 +8733,7 @@
         <v>2009</v>
       </c>
       <c r="C397" t="s">
-        <v>3</v>
+        <v>459</v>
       </c>
       <c r="D397" t="s">
         <v>224</v>
@@ -8747,7 +8750,7 @@
         <v>2009</v>
       </c>
       <c r="C398" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D398" t="s">
         <v>224</v>
@@ -8764,7 +8767,7 @@
         <v>2009</v>
       </c>
       <c r="C399" t="s">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D399" t="s">
         <v>224</v>
@@ -8781,7 +8784,7 @@
         <v>2009</v>
       </c>
       <c r="C400" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="D400" t="s">
         <v>224</v>
@@ -8801,10 +8804,10 @@
         <v>273</v>
       </c>
       <c r="D401" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E401" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8815,13 +8818,13 @@
         <v>2009</v>
       </c>
       <c r="C402" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D402" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E402" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8832,7 +8835,7 @@
         <v>2009</v>
       </c>
       <c r="C403" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D403" t="s">
         <v>224</v>
@@ -8849,7 +8852,7 @@
         <v>2009</v>
       </c>
       <c r="C404" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D404" t="s">
         <v>224</v>
@@ -8866,7 +8869,7 @@
         <v>2009</v>
       </c>
       <c r="C405" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D405" t="s">
         <v>224</v>
@@ -8883,7 +8886,7 @@
         <v>2009</v>
       </c>
       <c r="C406" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="D406" t="s">
         <v>224</v>
@@ -8900,7 +8903,7 @@
         <v>2009</v>
       </c>
       <c r="C407" t="s">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="D407" t="s">
         <v>224</v>
@@ -8917,7 +8920,7 @@
         <v>2009</v>
       </c>
       <c r="C408" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D408" t="s">
         <v>224</v>
@@ -8934,7 +8937,7 @@
         <v>2009</v>
       </c>
       <c r="C409" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D409" t="s">
         <v>224</v>
@@ -8951,7 +8954,7 @@
         <v>2009</v>
       </c>
       <c r="C410" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D410" t="s">
         <v>224</v>
@@ -8968,7 +8971,7 @@
         <v>2009</v>
       </c>
       <c r="C411" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D411" t="s">
         <v>224</v>
@@ -8985,7 +8988,7 @@
         <v>2009</v>
       </c>
       <c r="C412" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D412" t="s">
         <v>224</v>
@@ -9002,7 +9005,7 @@
         <v>2009</v>
       </c>
       <c r="C413" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="D413" t="s">
         <v>224</v>
@@ -9019,7 +9022,7 @@
         <v>2009</v>
       </c>
       <c r="C414" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="D414" t="s">
         <v>224</v>
@@ -9036,7 +9039,7 @@
         <v>2009</v>
       </c>
       <c r="C415" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D415" t="s">
         <v>224</v>
@@ -9053,7 +9056,7 @@
         <v>2009</v>
       </c>
       <c r="C416" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="D416" t="s">
         <v>224</v>
@@ -9070,7 +9073,7 @@
         <v>2009</v>
       </c>
       <c r="C417" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D417" t="s">
         <v>224</v>
@@ -9087,7 +9090,7 @@
         <v>2009</v>
       </c>
       <c r="C418" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D418" t="s">
         <v>224</v>
@@ -9104,7 +9107,7 @@
         <v>2009</v>
       </c>
       <c r="C419" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D419" t="s">
         <v>224</v>
@@ -9121,7 +9124,7 @@
         <v>2009</v>
       </c>
       <c r="C420" t="s">
-        <v>15</v>
+        <v>404</v>
       </c>
       <c r="D420" t="s">
         <v>224</v>
@@ -9138,7 +9141,7 @@
         <v>2009</v>
       </c>
       <c r="C421" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D421" t="s">
         <v>224</v>
@@ -9155,7 +9158,7 @@
         <v>2009</v>
       </c>
       <c r="C422" t="s">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="D422" t="s">
         <v>224</v>
@@ -9172,7 +9175,7 @@
         <v>2009</v>
       </c>
       <c r="C423" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="D423" t="s">
         <v>224</v>
@@ -9189,7 +9192,7 @@
         <v>2009</v>
       </c>
       <c r="C424" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="D424" t="s">
         <v>224</v>
@@ -9206,7 +9209,7 @@
         <v>2009</v>
       </c>
       <c r="C425" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="D425" t="s">
         <v>224</v>
@@ -9223,7 +9226,7 @@
         <v>2009</v>
       </c>
       <c r="C426" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D426" t="s">
         <v>224</v>
@@ -9240,7 +9243,7 @@
         <v>2009</v>
       </c>
       <c r="C427" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D427" t="s">
         <v>224</v>
@@ -9257,7 +9260,7 @@
         <v>2009</v>
       </c>
       <c r="C428" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D428" t="s">
         <v>224</v>
@@ -9274,7 +9277,7 @@
         <v>2009</v>
       </c>
       <c r="C429" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="D429" t="s">
         <v>224</v>
@@ -9291,7 +9294,7 @@
         <v>2009</v>
       </c>
       <c r="C430" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="D430" t="s">
         <v>224</v>
@@ -9308,13 +9311,13 @@
         <v>2009</v>
       </c>
       <c r="C431" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D431" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E431" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9325,13 +9328,13 @@
         <v>2009</v>
       </c>
       <c r="C432" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D432" t="s">
         <v>229</v>
       </c>
       <c r="E432" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9342,13 +9345,13 @@
         <v>2009</v>
       </c>
       <c r="C433" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D433" t="s">
         <v>229</v>
       </c>
       <c r="E433" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9362,10 +9365,10 @@
         <v>9</v>
       </c>
       <c r="D434" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E434" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9376,13 +9379,13 @@
         <v>2009</v>
       </c>
       <c r="C435" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D435" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E435" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9393,13 +9396,13 @@
         <v>2009</v>
       </c>
       <c r="C436" t="s">
-        <v>419</v>
+        <v>2</v>
       </c>
       <c r="D436" t="s">
         <v>229</v>
       </c>
       <c r="E436" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9410,13 +9413,13 @@
         <v>2009</v>
       </c>
       <c r="C437" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="D437" t="s">
         <v>229</v>
       </c>
       <c r="E437" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9427,13 +9430,13 @@
         <v>2009</v>
       </c>
       <c r="C438" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="D438" t="s">
         <v>229</v>
       </c>
       <c r="E438" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9444,13 +9447,13 @@
         <v>2009</v>
       </c>
       <c r="C439" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="D439" t="s">
         <v>229</v>
       </c>
       <c r="E439" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9461,13 +9464,13 @@
         <v>2009</v>
       </c>
       <c r="C440" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="D440" t="s">
         <v>229</v>
       </c>
       <c r="E440" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9481,10 +9484,10 @@
         <v>232</v>
       </c>
       <c r="D441" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E441" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9495,13 +9498,13 @@
         <v>2009</v>
       </c>
       <c r="C442" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="D442" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E442" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9515,10 +9518,10 @@
         <v>18</v>
       </c>
       <c r="D443" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E443" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9529,13 +9532,13 @@
         <v>2009</v>
       </c>
       <c r="C444" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D444" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E444" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9549,10 +9552,10 @@
         <v>15</v>
       </c>
       <c r="D445" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E445" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9563,13 +9566,13 @@
         <v>2009</v>
       </c>
       <c r="C446" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D446" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E446" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9580,13 +9583,13 @@
         <v>2009</v>
       </c>
       <c r="C447" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D447" t="s">
         <v>229</v>
       </c>
       <c r="E447" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9597,13 +9600,13 @@
         <v>2009</v>
       </c>
       <c r="C448" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D448" t="s">
         <v>229</v>
       </c>
       <c r="E448" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9614,13 +9617,13 @@
         <v>2009</v>
       </c>
       <c r="C449" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D449" t="s">
         <v>229</v>
       </c>
       <c r="E449" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9630,14 +9633,14 @@
       <c r="B450">
         <v>2009</v>
       </c>
-      <c r="C450" s="9" t="s">
-        <v>12</v>
+      <c r="C450" t="s">
+        <v>4</v>
       </c>
       <c r="D450" t="s">
         <v>229</v>
       </c>
       <c r="E450" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9648,13 +9651,13 @@
         <v>2009</v>
       </c>
       <c r="C451" s="9" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="D451" t="s">
         <v>229</v>
       </c>
       <c r="E451" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9665,13 +9668,13 @@
         <v>2009</v>
       </c>
       <c r="C452" s="9" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="D452" t="s">
         <v>229</v>
       </c>
       <c r="E452" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9682,13 +9685,13 @@
         <v>2009</v>
       </c>
       <c r="C453" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D453" t="s">
         <v>229</v>
       </c>
       <c r="E453" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9699,13 +9702,13 @@
         <v>2009</v>
       </c>
       <c r="C454" s="9" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D454" t="s">
         <v>229</v>
       </c>
       <c r="E454" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9716,13 +9719,13 @@
         <v>2009</v>
       </c>
       <c r="C455" s="9" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="D455" t="s">
         <v>229</v>
       </c>
       <c r="E455" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9733,13 +9736,13 @@
         <v>2009</v>
       </c>
       <c r="C456" s="9" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="D456" t="s">
         <v>229</v>
       </c>
       <c r="E456" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9750,13 +9753,13 @@
         <v>2009</v>
       </c>
       <c r="C457" s="9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D457" t="s">
         <v>229</v>
       </c>
       <c r="E457" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9767,13 +9770,13 @@
         <v>2009</v>
       </c>
       <c r="C458" s="9" t="s">
-        <v>456</v>
+        <v>22</v>
       </c>
       <c r="D458" t="s">
         <v>229</v>
       </c>
       <c r="E458" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9784,13 +9787,13 @@
         <v>2009</v>
       </c>
       <c r="C459" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D459" t="s">
         <v>229</v>
       </c>
       <c r="E459" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9801,13 +9804,13 @@
         <v>2009</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="D460" t="s">
         <v>229</v>
       </c>
       <c r="E460" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9815,16 +9818,16 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>2010</v>
-      </c>
-      <c r="C461" t="s">
-        <v>6</v>
+        <v>2009</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="D461" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="E461" t="s">
-        <v>188</v>
+        <v>453</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9835,13 +9838,13 @@
         <v>2010</v>
       </c>
       <c r="C462" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D462" t="s">
         <v>254</v>
       </c>
       <c r="E462" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9852,13 +9855,13 @@
         <v>2010</v>
       </c>
       <c r="C463" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D463" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="E463" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="464" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9869,13 +9872,13 @@
         <v>2010</v>
       </c>
       <c r="C464" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D464" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E464" t="s">
-        <v>384</v>
+        <v>190</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9883,16 +9886,16 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C465" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D465" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E465" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="466" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9903,13 +9906,13 @@
         <v>2011</v>
       </c>
       <c r="C466" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D466" t="s">
-        <v>397</v>
+        <v>224</v>
       </c>
       <c r="E466" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
     </row>
     <row r="467" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9920,47 +9923,47 @@
         <v>2011</v>
       </c>
       <c r="C467" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D467" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="E467" t="s">
-        <v>467</v>
+        <v>191</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>466</v>
       </c>
-      <c r="B468" s="7">
+      <c r="B468">
         <v>2011</v>
       </c>
       <c r="C468" t="s">
-        <v>404</v>
-      </c>
-      <c r="D468" s="9" t="s">
-        <v>301</v>
+        <v>17</v>
+      </c>
+      <c r="D468" t="s">
+        <v>224</v>
       </c>
       <c r="E468" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
     </row>
     <row r="469" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>467</v>
       </c>
-      <c r="B469">
-        <v>2012</v>
+      <c r="B469" s="7">
+        <v>2011</v>
       </c>
       <c r="C469" t="s">
-        <v>14</v>
-      </c>
-      <c r="D469" t="s">
-        <v>230</v>
+        <v>404</v>
+      </c>
+      <c r="D469" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="E469" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
     </row>
     <row r="470" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9971,13 +9974,13 @@
         <v>2012</v>
       </c>
       <c r="C470" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D470" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E470" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
     </row>
     <row r="471" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9988,13 +9991,13 @@
         <v>2012</v>
       </c>
       <c r="C471" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D471" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E471" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="472" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10005,13 +10008,13 @@
         <v>2012</v>
       </c>
       <c r="C472" t="s">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="D472" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E472" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="473" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10019,16 +10022,16 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C473" t="s">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="D473" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E473" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="474" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10039,13 +10042,13 @@
         <v>2013</v>
       </c>
       <c r="C474" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D474" t="s">
         <v>234</v>
       </c>
       <c r="E474" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="475" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10056,13 +10059,13 @@
         <v>2013</v>
       </c>
       <c r="C475" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D475" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E475" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
     </row>
     <row r="476" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10070,16 +10073,16 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C476" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D476" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E476" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10090,13 +10093,13 @@
         <v>2014</v>
       </c>
       <c r="C477" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D477" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E477" t="s">
-        <v>197</v>
+        <v>388</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10107,13 +10110,13 @@
         <v>2014</v>
       </c>
       <c r="C478" t="s">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D478" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E478" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="479" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10124,13 +10127,13 @@
         <v>2014</v>
       </c>
       <c r="C479" t="s">
-        <v>19</v>
+        <v>459</v>
       </c>
       <c r="D479" t="s">
         <v>224</v>
       </c>
       <c r="E479" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="480" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10141,13 +10144,13 @@
         <v>2014</v>
       </c>
       <c r="C480" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D480" t="s">
         <v>224</v>
       </c>
       <c r="E480" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="481" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10158,13 +10161,13 @@
         <v>2014</v>
       </c>
       <c r="C481" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D481" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E481" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10175,13 +10178,13 @@
         <v>2014</v>
       </c>
       <c r="C482" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="D482" t="s">
-        <v>397</v>
+        <v>220</v>
       </c>
       <c r="E482" t="s">
-        <v>389</v>
+        <v>200</v>
       </c>
     </row>
     <row r="483" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10192,13 +10195,13 @@
         <v>2014</v>
       </c>
       <c r="C483" t="s">
-        <v>405</v>
+        <v>312</v>
       </c>
       <c r="D483" t="s">
         <v>397</v>
       </c>
       <c r="E483" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10206,16 +10209,16 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C484" t="s">
-        <v>310</v>
+        <v>405</v>
       </c>
       <c r="D484" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
       <c r="E484" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="485" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10226,13 +10229,13 @@
         <v>2015</v>
       </c>
       <c r="C485" t="s">
-        <v>7</v>
+        <v>310</v>
       </c>
       <c r="D485" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E485" t="s">
-        <v>201</v>
+        <v>391</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10243,13 +10246,13 @@
         <v>2015</v>
       </c>
       <c r="C486" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
       <c r="D486" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E486" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="487" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10257,16 +10260,16 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C487" t="s">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="D487" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E487" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="488" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10277,13 +10280,13 @@
         <v>2016</v>
       </c>
       <c r="C488" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D488" t="s">
         <v>234</v>
       </c>
       <c r="E488" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="489" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10294,13 +10297,13 @@
         <v>2016</v>
       </c>
       <c r="C489" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D489" t="s">
         <v>234</v>
       </c>
       <c r="E489" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="490" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10311,13 +10314,13 @@
         <v>2016</v>
       </c>
       <c r="C490" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D490" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E490" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="491" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10328,13 +10331,13 @@
         <v>2016</v>
       </c>
       <c r="C491" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D491" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E491" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="492" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10342,50 +10345,50 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C492" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D492" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E492" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>491</v>
       </c>
-      <c r="B493" s="7">
+      <c r="B493">
         <v>2017</v>
       </c>
       <c r="C493" t="s">
-        <v>402</v>
+        <v>6</v>
       </c>
       <c r="D493" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E493" t="s">
-        <v>407</v>
+        <v>208</v>
       </c>
     </row>
     <row r="494" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="3">
         <v>492</v>
       </c>
-      <c r="B494">
-        <v>2018</v>
+      <c r="B494" s="7">
+        <v>2017</v>
       </c>
       <c r="C494" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="D494" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E494" t="s">
-        <v>209</v>
+        <v>407</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10396,13 +10399,13 @@
         <v>2018</v>
       </c>
       <c r="C495" t="s">
-        <v>405</v>
+        <v>6</v>
       </c>
       <c r="D495" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E495" t="s">
-        <v>392</v>
+        <v>209</v>
       </c>
     </row>
     <row r="496" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10413,13 +10416,13 @@
         <v>2018</v>
       </c>
       <c r="C496" t="s">
-        <v>18</v>
+        <v>405</v>
       </c>
       <c r="D496" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E496" t="s">
-        <v>210</v>
+        <v>392</v>
       </c>
     </row>
     <row r="497" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10427,7 +10430,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C497" t="s">
         <v>18</v>
@@ -10436,7 +10439,7 @@
         <v>220</v>
       </c>
       <c r="E497" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="498" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10444,16 +10447,16 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C498" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D498" t="s">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="E498" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="499" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10464,13 +10467,13 @@
         <v>2020</v>
       </c>
       <c r="C499" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D499" t="s">
         <v>393</v>
       </c>
       <c r="E499" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="500" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10484,10 +10487,10 @@
         <v>3</v>
       </c>
       <c r="D500" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="E500" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="501" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10498,13 +10501,13 @@
         <v>2020</v>
       </c>
       <c r="C501" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D501" t="s">
-        <v>393</v>
+        <v>244</v>
       </c>
       <c r="E501" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10532,13 +10535,13 @@
         <v>2020</v>
       </c>
       <c r="C503" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D503" t="s">
         <v>393</v>
       </c>
       <c r="E503" t="s">
-        <v>394</v>
+        <v>215</v>
       </c>
     </row>
     <row r="504" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10549,7 +10552,7 @@
         <v>2020</v>
       </c>
       <c r="C504" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D504" t="s">
         <v>393</v>
@@ -10566,7 +10569,7 @@
         <v>2020</v>
       </c>
       <c r="C505" t="s">
-        <v>314</v>
+        <v>21</v>
       </c>
       <c r="D505" t="s">
         <v>393</v>
@@ -10583,7 +10586,7 @@
         <v>2020</v>
       </c>
       <c r="C506" t="s">
-        <v>2</v>
+        <v>314</v>
       </c>
       <c r="D506" t="s">
         <v>393</v>
@@ -10600,7 +10603,7 @@
         <v>2020</v>
       </c>
       <c r="C507" t="s">
-        <v>401</v>
+        <v>2</v>
       </c>
       <c r="D507" t="s">
         <v>393</v>
@@ -10617,7 +10620,7 @@
         <v>2020</v>
       </c>
       <c r="C508" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="D508" t="s">
         <v>393</v>
@@ -10634,7 +10637,7 @@
         <v>2020</v>
       </c>
       <c r="C509" t="s">
-        <v>3</v>
+        <v>459</v>
       </c>
       <c r="D509" t="s">
         <v>393</v>
@@ -10651,7 +10654,7 @@
         <v>2020</v>
       </c>
       <c r="C510" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D510" t="s">
         <v>393</v>
@@ -10668,7 +10671,7 @@
         <v>2020</v>
       </c>
       <c r="C511" t="s">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D511" t="s">
         <v>393</v>
@@ -10685,7 +10688,7 @@
         <v>2020</v>
       </c>
       <c r="C512" t="s">
-        <v>273</v>
+        <v>456</v>
       </c>
       <c r="D512" t="s">
         <v>393</v>
@@ -10702,7 +10705,7 @@
         <v>2020</v>
       </c>
       <c r="C513" t="s">
-        <v>16</v>
+        <v>273</v>
       </c>
       <c r="D513" t="s">
         <v>393</v>
@@ -10719,7 +10722,7 @@
         <v>2020</v>
       </c>
       <c r="C514" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D514" t="s">
         <v>393</v>
@@ -10736,7 +10739,7 @@
         <v>2020</v>
       </c>
       <c r="C515" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D515" t="s">
         <v>393</v>
@@ -10753,7 +10756,7 @@
         <v>2020</v>
       </c>
       <c r="C516" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D516" t="s">
         <v>393</v>
@@ -10770,7 +10773,7 @@
         <v>2020</v>
       </c>
       <c r="C517" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
       <c r="D517" t="s">
         <v>393</v>
@@ -10787,7 +10790,7 @@
         <v>2020</v>
       </c>
       <c r="C518" t="s">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="D518" t="s">
         <v>393</v>
@@ -10804,7 +10807,7 @@
         <v>2020</v>
       </c>
       <c r="C519" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D519" t="s">
         <v>393</v>
@@ -10821,7 +10824,7 @@
         <v>2020</v>
       </c>
       <c r="C520" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D520" t="s">
         <v>393</v>
@@ -10838,7 +10841,7 @@
         <v>2020</v>
       </c>
       <c r="C521" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D521" t="s">
         <v>393</v>
@@ -10855,7 +10858,7 @@
         <v>2020</v>
       </c>
       <c r="C522" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D522" t="s">
         <v>393</v>
@@ -10872,7 +10875,7 @@
         <v>2020</v>
       </c>
       <c r="C523" t="s">
-        <v>310</v>
+        <v>19</v>
       </c>
       <c r="D523" t="s">
         <v>393</v>
@@ -10889,7 +10892,7 @@
         <v>2020</v>
       </c>
       <c r="C524" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="D524" t="s">
         <v>393</v>
@@ -10906,7 +10909,7 @@
         <v>2020</v>
       </c>
       <c r="C525" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="D525" t="s">
         <v>393</v>
@@ -10919,8 +10922,11 @@
       <c r="A526" s="3">
         <v>524</v>
       </c>
+      <c r="B526">
+        <v>2020</v>
+      </c>
       <c r="C526" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D526" t="s">
         <v>393</v>
@@ -10933,11 +10939,8 @@
       <c r="A527" s="3">
         <v>525</v>
       </c>
-      <c r="B527">
-        <v>2020</v>
-      </c>
       <c r="C527" t="s">
-        <v>402</v>
+        <v>316</v>
       </c>
       <c r="D527" t="s">
         <v>393</v>
@@ -10954,7 +10957,7 @@
         <v>2020</v>
       </c>
       <c r="C528" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="D528" t="s">
         <v>393</v>
@@ -10971,7 +10974,7 @@
         <v>2020</v>
       </c>
       <c r="C529" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="D529" t="s">
         <v>393</v>
@@ -10987,14 +10990,14 @@
       <c r="B530">
         <v>2020</v>
       </c>
-      <c r="C530" s="8" t="s">
+      <c r="C530" t="s">
         <v>403</v>
       </c>
       <c r="D530" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="E530" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="531" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11004,14 +11007,14 @@
       <c r="B531">
         <v>2020</v>
       </c>
-      <c r="C531" t="s">
-        <v>404</v>
+      <c r="C531" s="8" t="s">
+        <v>403</v>
       </c>
       <c r="D531" t="s">
-        <v>393</v>
+        <v>246</v>
       </c>
       <c r="E531" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="532" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11022,7 +11025,7 @@
         <v>2020</v>
       </c>
       <c r="C532" t="s">
-        <v>22</v>
+        <v>404</v>
       </c>
       <c r="D532" t="s">
         <v>393</v>
@@ -11039,7 +11042,7 @@
         <v>2020</v>
       </c>
       <c r="C533" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D533" t="s">
         <v>393</v>
@@ -11056,7 +11059,7 @@
         <v>2020</v>
       </c>
       <c r="C534" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D534" t="s">
         <v>393</v>
@@ -11069,11 +11072,11 @@
       <c r="A535" s="3">
         <v>533</v>
       </c>
-      <c r="B535" s="7">
+      <c r="B535">
         <v>2020</v>
       </c>
       <c r="C535" t="s">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="D535" t="s">
         <v>393</v>
@@ -11090,7 +11093,7 @@
         <v>2020</v>
       </c>
       <c r="C536" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="D536" t="s">
         <v>393</v>
@@ -11107,7 +11110,7 @@
         <v>2020</v>
       </c>
       <c r="C537" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="D537" t="s">
         <v>393</v>
@@ -11124,7 +11127,7 @@
         <v>2020</v>
       </c>
       <c r="C538" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="D538" t="s">
         <v>393</v>
@@ -11141,7 +11144,7 @@
         <v>2020</v>
       </c>
       <c r="C539" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D539" t="s">
         <v>393</v>
@@ -11158,7 +11161,7 @@
         <v>2020</v>
       </c>
       <c r="C540" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D540" t="s">
         <v>393</v>
@@ -11175,7 +11178,7 @@
         <v>2020</v>
       </c>
       <c r="C541" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D541" t="s">
         <v>393</v>
@@ -11192,7 +11195,7 @@
         <v>2020</v>
       </c>
       <c r="C542" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="D542" t="s">
         <v>393</v>
@@ -11209,7 +11212,7 @@
         <v>2020</v>
       </c>
       <c r="C543" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="D543" t="s">
         <v>393</v>
@@ -11225,14 +11228,14 @@
       <c r="B544" s="7">
         <v>2020</v>
       </c>
-      <c r="C544" s="8" t="s">
+      <c r="C544" t="s">
         <v>14</v>
       </c>
       <c r="D544" t="s">
-        <v>229</v>
+        <v>393</v>
       </c>
       <c r="E544" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="545" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11240,24 +11243,34 @@
         <v>543</v>
       </c>
       <c r="B545" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C545" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D545" t="s">
+        <v>229</v>
+      </c>
+      <c r="E545" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A546" s="3">
+        <v>544</v>
+      </c>
+      <c r="B546" s="7">
         <v>2021</v>
       </c>
-      <c r="C545" s="8" t="s">
+      <c r="C546" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D545" t="s">
+      <c r="D546" t="s">
         <v>240</v>
       </c>
-      <c r="E545" t="s">
+      <c r="E546" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="546" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="4"/>
-      <c r="B546" s="4"/>
-      <c r="C546" s="5"/>
-      <c r="D546" s="5"/>
-      <c r="E546" s="5"/>
     </row>
     <row r="547" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4"/>
@@ -11625,10 +11638,10 @@
     </row>
     <row r="599" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4"/>
-      <c r="B599" s="6"/>
-      <c r="C599" s="6"/>
-      <c r="D599" s="6"/>
-      <c r="E599" s="6"/>
+      <c r="B599" s="4"/>
+      <c r="C599" s="5"/>
+      <c r="D599" s="5"/>
+      <c r="E599" s="5"/>
     </row>
     <row r="600" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4"/>
@@ -11646,10 +11659,10 @@
     </row>
     <row r="602" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4"/>
-      <c r="B602" s="4"/>
-      <c r="C602" s="5"/>
-      <c r="D602" s="5"/>
-      <c r="E602" s="5"/>
+      <c r="B602" s="6"/>
+      <c r="C602" s="6"/>
+      <c r="D602" s="6"/>
+      <c r="E602" s="6"/>
     </row>
     <row r="603" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4"/>
@@ -12304,10 +12317,10 @@
     </row>
     <row r="696" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="4"/>
-      <c r="B696" s="6"/>
-      <c r="C696" s="6"/>
-      <c r="D696" s="6"/>
-      <c r="E696" s="6"/>
+      <c r="B696" s="4"/>
+      <c r="C696" s="5"/>
+      <c r="D696" s="5"/>
+      <c r="E696" s="5"/>
     </row>
     <row r="697" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="4"/>
@@ -12352,18 +12365,18 @@
       <c r="E702" s="6"/>
     </row>
     <row r="703" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A703" s="6"/>
+      <c r="A703" s="4"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
     </row>
     <row r="704" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A704" s="4"/>
-      <c r="B704" s="4"/>
-      <c r="C704" s="5"/>
-      <c r="D704" s="5"/>
-      <c r="E704" s="5"/>
+      <c r="A704" s="6"/>
+      <c r="B704" s="6"/>
+      <c r="C704" s="6"/>
+      <c r="D704" s="6"/>
+      <c r="E704" s="6"/>
     </row>
     <row r="705" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="4"/>
@@ -14285,10 +14298,10 @@
     </row>
     <row r="979" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A979" s="4"/>
-      <c r="B979" s="6"/>
-      <c r="C979" s="6"/>
-      <c r="D979" s="6"/>
-      <c r="E979" s="6"/>
+      <c r="B979" s="4"/>
+      <c r="C979" s="5"/>
+      <c r="D979" s="5"/>
+      <c r="E979" s="5"/>
     </row>
     <row r="980" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A980" s="4"/>
@@ -14703,10 +14716,17 @@
       <c r="D1038" s="6"/>
       <c r="E1038" s="6"/>
     </row>
+    <row r="1039" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1039" s="4"/>
+      <c r="B1039" s="6"/>
+      <c r="C1039" s="6"/>
+      <c r="D1039" s="6"/>
+      <c r="E1039" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1038" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1038">
-      <sortCondition ref="B1:B1038"/>
+  <autoFilter ref="A1:E1039" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1039">
+      <sortCondition ref="B1:B1039"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
